--- a/Data/EN_model/Model_log.xlsx
+++ b/Data/EN_model/Model_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungyunlu/Library/CloudStorage/Box-Box/Hung-Yun Lu Research File/Projects/FSCV/Script/Data/EN_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC763155-3A79-AA4B-88A3-DCC491051668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938B427-509F-F340-9670-EDE29DF83D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{00FF9625-BC49-7B43-80E8-E947B345DFAB}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" activeTab="5" xr2:uid="{00FF9625-BC49-7B43-80E8-E947B345DFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="11" r:id="rId1"/>
@@ -518,9 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C74FDA7-245B-2D4E-ADC1-47C2408CAA63}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1311,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C571471E-E123-7B47-B644-43083ADA9EDA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/Data/EN_model/Model_log.xlsx
+++ b/Data/EN_model/Model_log.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungyunlu/Library/CloudStorage/Box-Box/Hung-Yun Lu Research File/Projects/FSCV/Script/Data/EN_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/hungyunlu/library/cloudstorage/box-box/hung-yun lu research file/projects/fscv/script/data/en_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938B427-509F-F340-9670-EDE29DF83D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDD04D3-EB60-DD44-BA28-7D1F873193BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" activeTab="5" xr2:uid="{00FF9625-BC49-7B43-80E8-E947B345DFAB}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{00FF9625-BC49-7B43-80E8-E947B345DFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="11" r:id="rId1"/>
-    <sheet name="Model-1350-30-4000-220120" sheetId="9" r:id="rId2"/>
-    <sheet name="Model-1350-100-4000-220120" sheetId="12" r:id="rId3"/>
-    <sheet name="Model-1350-30-7000-220120" sheetId="13" r:id="rId4"/>
-    <sheet name="Model-70-15-3000-220120" sheetId="14" r:id="rId5"/>
-    <sheet name="Model-70-5-3000-220120" sheetId="15" r:id="rId6"/>
+    <sheet name="Model-50-5-5000-220122" sheetId="17" r:id="rId2"/>
+    <sheet name="Model-1350-30-4000-220120" sheetId="9" r:id="rId3"/>
+    <sheet name="Model-1350-100-4000-220120" sheetId="12" r:id="rId4"/>
+    <sheet name="Model-1350-30-7000-220120" sheetId="13" r:id="rId5"/>
+    <sheet name="Model-70-15-3000-220120" sheetId="14" r:id="rId6"/>
+    <sheet name="Model-1000-40-8000-220122" sheetId="16" r:id="rId7"/>
+    <sheet name="Model-70-5-3000-220120" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="35">
   <si>
     <t>Center conc</t>
   </si>
@@ -142,6 +144,12 @@
   </si>
   <si>
     <t>Model-70-5-3000-220120</t>
+  </si>
+  <si>
+    <t>Model-1000-40-8000-220122</t>
+  </si>
+  <si>
+    <t>Model-50-5-5000-220122</t>
   </si>
 </sst>
 </file>
@@ -516,9 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C74FDA7-245B-2D4E-ADC1-47C2408CAA63}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -551,6 +561,16 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,6 +578,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF80B86-FC14-DC4A-B514-157EE736CD3D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>220122</v>
+      </c>
+      <c r="E2">
+        <v>0.80485366513043755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>331</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0296C8DF-D6C4-6D4F-9116-39011A22252F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -723,7 +865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343D0898-CF82-294F-B2B4-09AECC58E543}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -923,7 +1065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1748E1D3-03FA-E247-865B-30A7B2D56E17}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -1095,7 +1237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4CEF07-8AF5-AF41-9BBA-B25992AA0432}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -1305,11 +1447,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A43B68-9022-5141-A9C9-58F7924D867F}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>8000</v>
+      </c>
+      <c r="D2">
+        <v>220122</v>
+      </c>
+      <c r="E2">
+        <v>0.62220694955987599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>850</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>900</v>
+      </c>
+      <c r="B6">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>950</v>
+      </c>
+      <c r="B7">
+        <v>1600</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>3200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1050</v>
+      </c>
+      <c r="B9">
+        <v>1929</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1100</v>
+      </c>
+      <c r="B10">
+        <v>249</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1150</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C571471E-E123-7B47-B644-43083ADA9EDA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
